--- a/src/test/java/dataEngine/Planning 1.xlsx
+++ b/src/test/java/dataEngine/Planning 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
@@ -51,9 +51,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Planning 1 - Route</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -345,8 +345,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -645,7 +673,7 @@
   <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +720,10 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
@@ -709,303 +737,303 @@
         <v>10</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="H9" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="20">
         <v>1</v>
@@ -1014,111 +1042,111 @@
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="H20" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
